--- a/rec_selectivity_coastwide_cdf_star.xlsx
+++ b/rec_selectivity_coastwide_cdf_star.xlsx
@@ -94,13 +94,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>46176.487785339355</v>
+        <v>1004.5607611341402</v>
       </c>
       <c r="C2" s="2">
         <v>10802010</v>
       </c>
       <c r="D2" s="1">
-        <v>3.4426455020053481e-09</v>
+        <v>7.4894104806766393e-11</v>
       </c>
     </row>
     <row r="3">
@@ -108,13 +108,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>97448.5625</v>
+        <v>16345.936218261719</v>
       </c>
       <c r="C3" s="2">
         <v>10802010</v>
       </c>
       <c r="D3" s="1">
-        <v>5.9190036205691854e-10</v>
+        <v>9.9284851173830901e-11</v>
       </c>
     </row>
     <row r="4">
@@ -122,13 +122,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>250734.265625</v>
+        <v>115572.06396484375</v>
       </c>
       <c r="C4" s="2">
         <v>10802010</v>
       </c>
       <c r="D4" s="1">
-        <v>1.2652517922262518e-09</v>
+        <v>5.8319815643415041e-10</v>
       </c>
     </row>
     <row r="5">
@@ -136,13 +136,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>563765.25</v>
+        <v>573382.234375</v>
       </c>
       <c r="C5" s="2">
         <v>10802010</v>
       </c>
       <c r="D5" s="1">
-        <v>2.5120758806451704e-09</v>
+        <v>2.5549280469050473e-09</v>
       </c>
     </row>
     <row r="6">
@@ -150,13 +150,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>1107736</v>
+        <v>1461357.8125</v>
       </c>
       <c r="C6" s="2">
         <v>10802010</v>
       </c>
       <c r="D6" s="1">
-        <v>1.2611118371808061e-08</v>
+        <v>1.6636956701177041e-08</v>
       </c>
     </row>
     <row r="7">
@@ -164,13 +164,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>1902101.125</v>
+        <v>2318790.75</v>
       </c>
       <c r="C7" s="2">
         <v>10802010</v>
       </c>
       <c r="D7" s="1">
-        <v>2.2531288834670704e-08</v>
+        <v>2.7467175200968086e-08</v>
       </c>
     </row>
     <row r="8">
@@ -178,13 +178,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>2854270.5</v>
+        <v>3563264.3125</v>
       </c>
       <c r="C8" s="2">
         <v>10802010</v>
       </c>
       <c r="D8" s="1">
-        <v>4.567715095049607e-08</v>
+        <v>5.7023243016374181e-08</v>
       </c>
     </row>
     <row r="9">
@@ -192,13 +192,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>3743039.75</v>
+        <v>4596000</v>
       </c>
       <c r="C9" s="2">
         <v>10802010</v>
       </c>
       <c r="D9" s="1">
-        <v>4.4527702414143278e-08</v>
+        <v>5.467463282116114e-08</v>
       </c>
     </row>
     <row r="10">
@@ -206,13 +206,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>4289672</v>
+        <v>3742583</v>
       </c>
       <c r="C10" s="2">
         <v>10802010</v>
       </c>
       <c r="D10" s="1">
-        <v>3.7985007139695881e-08</v>
+        <v>3.3140537425424554e-08</v>
       </c>
     </row>
     <row r="11">
@@ -220,13 +220,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>4296306</v>
+        <v>4707804</v>
       </c>
       <c r="C11" s="2">
         <v>10802010</v>
       </c>
       <c r="D11" s="1">
-        <v>2.1905659508547615e-08</v>
+        <v>2.4003771414982111e-08</v>
       </c>
     </row>
     <row r="12">
@@ -234,13 +234,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>3760433.75</v>
+        <v>2927325.375</v>
       </c>
       <c r="C12" s="2">
         <v>10802010</v>
       </c>
       <c r="D12" s="1">
-        <v>3.9206710766848119e-08</v>
+        <v>3.0520627802843592e-08</v>
       </c>
     </row>
     <row r="13">
@@ -248,13 +248,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>2876411.25</v>
+        <v>2233480.3125</v>
       </c>
       <c r="C13" s="2">
         <v>10802010</v>
       </c>
       <c r="D13" s="1">
-        <v>3.2909650116152989e-08</v>
+        <v>2.5553736904271318e-08</v>
       </c>
     </row>
     <row r="14">
@@ -262,13 +262,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>1922790.25</v>
+        <v>1100141.5</v>
       </c>
       <c r="C14" s="2">
         <v>10802010</v>
       </c>
       <c r="D14" s="1">
-        <v>3.8569606175542503e-08</v>
+        <v>2.2067942140324703e-08</v>
       </c>
     </row>
     <row r="15">
@@ -276,13 +276,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="1">
-        <v>1123251.75</v>
+        <v>1141520.875</v>
       </c>
       <c r="C15" s="2">
         <v>10802010</v>
       </c>
       <c r="D15" s="1">
-        <v>2.3532285453597979e-08</v>
+        <v>2.3915026403642514e-08</v>
       </c>
     </row>
     <row r="16">
@@ -290,13 +290,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>573431.8125</v>
+        <v>488117.171875</v>
       </c>
       <c r="C16" s="2">
         <v>10802010</v>
       </c>
       <c r="D16" s="1">
-        <v>1.4659995883903321e-08</v>
+        <v>1.2478896138645723e-08</v>
       </c>
     </row>
     <row r="17">
@@ -304,13 +304,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="1">
-        <v>255823.25</v>
+        <v>442970.9375</v>
       </c>
       <c r="C17" s="2">
         <v>10802010</v>
       </c>
       <c r="D17" s="1">
-        <v>1.221663659123351e-08</v>
+        <v>2.1153725882072649e-08</v>
       </c>
     </row>
     <row r="18">
@@ -318,13 +318,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="1">
-        <v>99734.34375</v>
+        <v>164226.234375</v>
       </c>
       <c r="C18" s="2">
         <v>10802010</v>
       </c>
       <c r="D18" s="1">
-        <v>3.404615922519838e-09</v>
+        <v>5.606165753846426e-09</v>
       </c>
     </row>
     <row r="19">
@@ -332,13 +332,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>33977.23046875</v>
+        <v>98302.7109375</v>
       </c>
       <c r="C19" s="2">
         <v>10802010</v>
       </c>
       <c r="D19" s="1">
-        <v>1.6330423679988826e-09</v>
+        <v>4.7247077361589618e-09</v>
       </c>
     </row>
     <row r="20">
@@ -346,13 +346,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="1">
-        <v>10114.880859375</v>
+        <v>56294.08984375</v>
       </c>
       <c r="C20" s="2">
         <v>10802010</v>
       </c>
       <c r="D20" s="1">
-        <v>4.7185666485205502e-10</v>
+        <v>2.6261053331921858e-09</v>
       </c>
     </row>
     <row r="21">
@@ -360,13 +360,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="1">
-        <v>2631.1962890625</v>
+        <v>30841.416015625</v>
       </c>
       <c r="C21" s="2">
         <v>10802010</v>
       </c>
       <c r="D21" s="1">
-        <v>2.6900137672924984e-10</v>
+        <v>3.1530840161053675e-09</v>
       </c>
     </row>
     <row r="22">
@@ -374,13 +374,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="1">
-        <v>598.07373046875</v>
+        <v>16165.15380859375</v>
       </c>
       <c r="C22" s="2">
         <v>10802010</v>
       </c>
       <c r="D22" s="1">
-        <v>6.0574968652193917e-11</v>
+        <v>1.6372625477600877e-09</v>
       </c>
     </row>
     <row r="23">
@@ -388,13 +388,13 @@
         <v>27</v>
       </c>
       <c r="B23" s="1">
-        <v>118.78286743164063</v>
+        <v>8105.861328125</v>
       </c>
       <c r="C23" s="2">
         <v>10802010</v>
       </c>
       <c r="D23" s="1">
-        <v>2.6197675973005374e-11</v>
+        <v>1.7877554991940769e-09</v>
       </c>
     </row>
     <row r="24">
@@ -402,13 +402,13 @@
         <v>28</v>
       </c>
       <c r="B24" s="1">
-        <v>20.61286735534668</v>
+        <v>2308.74560546875</v>
       </c>
       <c r="C24" s="2">
         <v>10802010</v>
       </c>
       <c r="D24" s="1">
-        <v>4.4900576312567608e-12</v>
+        <v>5.0290921427276203e-10</v>
       </c>
     </row>
     <row r="25">
@@ -416,13 +416,13 @@
         <v>29</v>
       </c>
       <c r="B25" s="1">
-        <v>3.1253306865692139</v>
+        <v>2648.979736328125</v>
       </c>
       <c r="C25" s="2">
         <v>10802010</v>
       </c>
       <c r="D25" s="1">
-        <v>1.9877537116297361e-12</v>
+        <v>1.6847877537529143e-09</v>
       </c>
     </row>
     <row r="26">
@@ -430,13 +430,13 @@
         <v>30</v>
       </c>
       <c r="B26" s="1">
-        <v>0.41401240229606628</v>
+        <v>1189.1361389160156</v>
       </c>
       <c r="C26" s="2">
         <v>10802010</v>
       </c>
       <c r="D26" s="1">
-        <v>6.7080417826340111e-13</v>
+        <v>1.9266994666367054e-09</v>
       </c>
     </row>
     <row r="27">
@@ -444,13 +444,13 @@
         <v>31</v>
       </c>
       <c r="B27" s="1">
-        <v>0.047915611416101456</v>
+        <v>310.00677490234375</v>
       </c>
       <c r="C27" s="2">
         <v>10802010</v>
       </c>
       <c r="D27" s="1">
-        <v>1.1645301693438692e-13</v>
+        <v>7.5343342675893155e-10</v>
       </c>
     </row>
   </sheetData>

--- a/rec_selectivity_coastwide_cdf_star.xlsx
+++ b/rec_selectivity_coastwide_cdf_star.xlsx
@@ -94,13 +94,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>1004.5607611341402</v>
+        <v>999.62830350990407</v>
       </c>
       <c r="C2" s="2">
         <v>10802010</v>
       </c>
       <c r="D2" s="1">
-        <v>7.4894104806766393e-11</v>
+        <v>7.4526371185434925e-11</v>
       </c>
     </row>
     <row r="3">
@@ -108,13 +108,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>16345.936218261719</v>
+        <v>16287.765014648438</v>
       </c>
       <c r="C3" s="2">
         <v>10802010</v>
       </c>
       <c r="D3" s="1">
-        <v>9.9284851173830901e-11</v>
+        <v>9.8931515757350041e-11</v>
       </c>
     </row>
     <row r="4">
@@ -122,13 +122,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>115572.06396484375</v>
+        <v>115276.1064453125</v>
       </c>
       <c r="C4" s="2">
         <v>10802010</v>
       </c>
       <c r="D4" s="1">
-        <v>5.8319815643415041e-10</v>
+        <v>5.8170468442142464e-10</v>
       </c>
     </row>
     <row r="5">
@@ -136,13 +136,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>573382.234375</v>
+        <v>572392.23046875</v>
       </c>
       <c r="C5" s="2">
         <v>10802010</v>
       </c>
       <c r="D5" s="1">
-        <v>2.5549280469050473e-09</v>
+        <v>2.5505166867390017e-09</v>
       </c>
     </row>
     <row r="6">
@@ -150,13 +150,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>1461357.8125</v>
+        <v>1459755.578125</v>
       </c>
       <c r="C6" s="2">
         <v>10802010</v>
       </c>
       <c r="D6" s="1">
-        <v>1.6636956701177041e-08</v>
+        <v>1.661871529279324e-08</v>
       </c>
     </row>
     <row r="7">
@@ -164,13 +164,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>2318790.75</v>
+        <v>2317277.375</v>
       </c>
       <c r="C7" s="2">
         <v>10802010</v>
       </c>
       <c r="D7" s="1">
-        <v>2.7467175200968086e-08</v>
+        <v>2.7449248207744859e-08</v>
       </c>
     </row>
     <row r="8">
@@ -178,13 +178,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>3563264.3125</v>
+        <v>3562152.75</v>
       </c>
       <c r="C8" s="2">
         <v>10802010</v>
       </c>
       <c r="D8" s="1">
-        <v>5.7023243016374181e-08</v>
+        <v>5.7005454578984427e-08</v>
       </c>
     </row>
     <row r="9">
@@ -192,13 +192,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>4596000</v>
+        <v>4595849.375</v>
       </c>
       <c r="C9" s="2">
         <v>10802010</v>
       </c>
       <c r="D9" s="1">
-        <v>5.467463282116114e-08</v>
+        <v>5.4672842253467024e-08</v>
       </c>
     </row>
     <row r="10">
@@ -206,13 +206,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>3742583</v>
+        <v>3743189.25</v>
       </c>
       <c r="C10" s="2">
         <v>10802010</v>
       </c>
       <c r="D10" s="1">
-        <v>3.3140537425424554e-08</v>
+        <v>3.3145905575793222e-08</v>
       </c>
     </row>
     <row r="11">
@@ -220,13 +220,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>4707804</v>
+        <v>4709251.5</v>
       </c>
       <c r="C11" s="2">
         <v>10802010</v>
       </c>
       <c r="D11" s="1">
-        <v>2.4003771414982111e-08</v>
+        <v>2.4011152177649819e-08</v>
       </c>
     </row>
     <row r="12">
@@ -234,13 +234,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>2927325.375</v>
+        <v>2928522.1875</v>
       </c>
       <c r="C12" s="2">
         <v>10802010</v>
       </c>
       <c r="D12" s="1">
-        <v>3.0520627802843592e-08</v>
+        <v>3.0533104933283539e-08</v>
       </c>
     </row>
     <row r="13">
@@ -248,13 +248,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>2233480.3125</v>
+        <v>2234498.9375</v>
       </c>
       <c r="C13" s="2">
         <v>10802010</v>
       </c>
       <c r="D13" s="1">
-        <v>2.5553736904271318e-08</v>
+        <v>2.5565391581494623e-08</v>
       </c>
     </row>
     <row r="14">
@@ -262,13 +262,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>1100141.5</v>
+        <v>1100657.875</v>
       </c>
       <c r="C14" s="2">
         <v>10802010</v>
       </c>
       <c r="D14" s="1">
-        <v>2.2067942140324703e-08</v>
+        <v>2.2078300077055246e-08</v>
       </c>
     </row>
     <row r="15">
@@ -276,13 +276,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="1">
-        <v>1141520.875</v>
+        <v>1142042.125</v>
       </c>
       <c r="C15" s="2">
         <v>10802010</v>
       </c>
       <c r="D15" s="1">
-        <v>2.3915026403642514e-08</v>
+        <v>2.3925945669134308e-08</v>
       </c>
     </row>
     <row r="16">
@@ -290,13 +290,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>488117.171875</v>
+        <v>488321.96875</v>
       </c>
       <c r="C16" s="2">
         <v>10802010</v>
       </c>
       <c r="D16" s="1">
-        <v>1.2478896138645723e-08</v>
+        <v>1.2484131950429855e-08</v>
       </c>
     </row>
     <row r="17">
@@ -304,13 +304,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="1">
-        <v>442970.9375</v>
+        <v>443130.1640625</v>
       </c>
       <c r="C17" s="2">
         <v>10802010</v>
       </c>
       <c r="D17" s="1">
-        <v>2.1153725882072649e-08</v>
+        <v>2.1161328689345282e-08</v>
       </c>
     </row>
     <row r="18">
@@ -318,13 +318,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="1">
-        <v>164226.234375</v>
+        <v>164270.7578125</v>
       </c>
       <c r="C18" s="2">
         <v>10802010</v>
       </c>
       <c r="D18" s="1">
-        <v>5.606165753846426e-09</v>
+        <v>5.6076858712117428e-09</v>
       </c>
     </row>
     <row r="19">
@@ -332,13 +332,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>98302.7109375</v>
+        <v>98320.80859375</v>
       </c>
       <c r="C19" s="2">
         <v>10802010</v>
       </c>
       <c r="D19" s="1">
-        <v>4.7247077361589618e-09</v>
+        <v>4.7255777069210581e-09</v>
       </c>
     </row>
     <row r="20">
@@ -346,13 +346,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="1">
-        <v>56294.08984375</v>
+        <v>56298.671875</v>
       </c>
       <c r="C20" s="2">
         <v>10802010</v>
       </c>
       <c r="D20" s="1">
-        <v>2.6261053331921858e-09</v>
+        <v>2.6263191621467286e-09</v>
       </c>
     </row>
     <row r="21">
@@ -360,13 +360,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="1">
-        <v>30841.416015625</v>
+        <v>30840.2724609375</v>
       </c>
       <c r="C21" s="2">
         <v>10802010</v>
       </c>
       <c r="D21" s="1">
-        <v>3.1530840161053675e-09</v>
+        <v>3.1529672206431769e-09</v>
       </c>
     </row>
     <row r="22">
@@ -374,13 +374,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="1">
-        <v>16165.15380859375</v>
+        <v>16162.384765625</v>
       </c>
       <c r="C22" s="2">
         <v>10802010</v>
       </c>
       <c r="D22" s="1">
-        <v>1.6372625477600877e-09</v>
+        <v>1.6369821054240674e-09</v>
       </c>
     </row>
     <row r="23">
@@ -388,13 +388,13 @@
         <v>27</v>
       </c>
       <c r="B23" s="1">
-        <v>8105.861328125</v>
+        <v>8103.25732421875</v>
       </c>
       <c r="C23" s="2">
         <v>10802010</v>
       </c>
       <c r="D23" s="1">
-        <v>1.7877554991940769e-09</v>
+        <v>1.7871811808234384e-09</v>
       </c>
     </row>
     <row r="24">
@@ -402,13 +402,13 @@
         <v>28</v>
       </c>
       <c r="B24" s="1">
-        <v>2308.74560546875</v>
+        <v>2307.703369140625</v>
       </c>
       <c r="C24" s="2">
         <v>10802010</v>
       </c>
       <c r="D24" s="1">
-        <v>5.0290921427276203e-10</v>
+        <v>5.0268217366422618e-10</v>
       </c>
     </row>
     <row r="25">
@@ -416,13 +416,13 @@
         <v>29</v>
       </c>
       <c r="B25" s="1">
-        <v>2648.979736328125</v>
+        <v>2647.4547119140625</v>
       </c>
       <c r="C25" s="2">
         <v>10802010</v>
       </c>
       <c r="D25" s="1">
-        <v>1.6847877537529143e-09</v>
+        <v>1.6838178629186018e-09</v>
       </c>
     </row>
     <row r="26">
@@ -430,13 +430,13 @@
         <v>30</v>
       </c>
       <c r="B26" s="1">
-        <v>1189.1361389160156</v>
+        <v>1188.2264099121094</v>
       </c>
       <c r="C26" s="2">
         <v>10802010</v>
       </c>
       <c r="D26" s="1">
-        <v>1.9266994666367054e-09</v>
+        <v>1.9252255345492131e-09</v>
       </c>
     </row>
     <row r="27">
@@ -444,13 +444,13 @@
         <v>31</v>
       </c>
       <c r="B27" s="1">
-        <v>310.00677490234375</v>
+        <v>309.7191162109375</v>
       </c>
       <c r="C27" s="2">
         <v>10802010</v>
       </c>
       <c r="D27" s="1">
-        <v>7.5343342675893155e-10</v>
+        <v>7.5273431932032508e-10</v>
       </c>
     </row>
   </sheetData>
